--- a/src/test/resources/AutomationToolsQA.xlsx
+++ b/src/test/resources/AutomationToolsQA.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar.lopez\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar.lopez\IdeaProjects\DemoQa.com\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A090CAE8-F9D8-4D2E-9BF2-B7C4023C1BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2B1522-32B9-401C-BC8B-DB72D7115D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C17C56E5-23DA-4761-809E-A4D2B3860CA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C17C56E5-23DA-4761-809E-A4D2B3860CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data 3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Oscar</t>
   </si>
@@ -54,6 +55,18 @@
   </si>
   <si>
     <t>5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You selected </t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>oscar</t>
+  </si>
+  <si>
+    <t>You entered</t>
   </si>
 </sst>
 </file>
@@ -419,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F435E88-F15A-4E0F-9A34-E6164DBA7704}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -455,4 +468,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE36AD47-1760-4A0B-A720-2D5F56F7F22B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>